--- a/html.xlsx
+++ b/html.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABE731-9602-4701-BCE0-9246E9D82A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD93E035-E8C1-4E8A-A1EE-D4F15883E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="2160" windowWidth="28800" windowHeight="11385" tabRatio="821" activeTab="3" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
+    <workbookView xWindow="28800" yWindow="2160" windowWidth="9600" windowHeight="11385" tabRatio="821" activeTab="3" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
   </bookViews>
   <sheets>
     <sheet name="命名規則" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="427">
   <si>
     <t>コード</t>
   </si>
@@ -401,10 +401,6 @@
     <rPh sb="61" eb="63">
       <t>キジュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>media (max-width:1000px) {</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4938,12 +4934,66 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>&lt;header class="header"&gt;
+  ヘッダー
+&lt;/header&gt;
+&lt;main class="main"&gt;
+  コンテンツ
+&lt;/main&gt;
+&lt;footer class="footer"&gt;
+  フッター
+&lt;/footer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.header{
+  background: #ff188a;
+  height: 70px;
+  color: #fff;
+}
+.main{
+  background: #00adb9;
+  height: 600px;
+  color: #fff;
+}
+.footer{
+  background: #f7ea00;
+  height: 70px;
+  color: #fff;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @media (max-width:1000px) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> background: url(../img/mv.png) center / cover;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央よせで1枚背景を写真にする。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5142,6 +5192,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5291,7 +5350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5409,6 +5468,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5418,16 +5495,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5442,28 +5522,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5474,6 +5539,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5622,13 +5690,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4459629</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5672,13 +5740,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12057</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>79334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3910255</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5722,13 +5790,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1107564</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>83927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5222938</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>55813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5772,13 +5840,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5209592</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>62478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7222756</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>72602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5822,13 +5890,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3713544</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>36170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>726123</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>241139</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5872,13 +5940,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>234208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5922,13 +5990,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>60163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6148,8 +6216,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F969960-6C19-4997-93E9-14290711020D}" name="テーブル2" displayName="テーブル2" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{0F969960-6C19-4997-93E9-14290711020D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F969960-6C19-4997-93E9-14290711020D}" name="テーブル2" displayName="テーブル2" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{0F969960-6C19-4997-93E9-14290711020D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -6555,250 +6623,250 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
         <v>186</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
         <v>203</v>
-      </c>
-      <c r="B18" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s">
         <v>217</v>
-      </c>
-      <c r="B26" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
         <v>219</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
         <v>221</v>
-      </c>
-      <c r="B28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6832,50 +6900,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6886,10 +6954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F878F64-CD14-45FD-BE9A-88D5A254287E}">
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6913,14 +6981,14 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
         <v>325</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
       </c>
       <c r="C2" s="18"/>
       <c r="E2" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -6934,263 +7002,269 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.4">
-      <c r="A22" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="18"/>
+      <c r="A23" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.4">
+      <c r="A24" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="18"/>
+      <c r="A33" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C34" s="18"/>
@@ -7217,14 +7291,16 @@
       <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C43" s="18"/>
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A43" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C44" s="18"/>
@@ -7280,164 +7356,164 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C61" s="18"/>
     </row>
-    <row r="62" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:3" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" s="16" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C62" s="18"/>
+    </row>
+    <row r="63" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="19"/>
+    </row>
+    <row r="64" spans="1:3" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="18"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+      <c r="C65" s="18"/>
+    </row>
+    <row r="66" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>247</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="18"/>
-    </row>
-    <row r="65" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>248</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C66" s="18"/>
+    </row>
+    <row r="67" spans="1:3" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="18"/>
-    </row>
-    <row r="66" spans="1:3" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="50" t="s">
+      <c r="B67" s="43"/>
+      <c r="C67" s="44"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="52"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="18"/>
+    </row>
+    <row r="69" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>257</v>
       </c>
-      <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
+      <c r="C69" s="18"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>258</v>
       </c>
-      <c r="C68" s="18"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="1:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>255</v>
       </c>
-      <c r="B69" t="s">
-        <v>259</v>
-      </c>
-      <c r="C69" s="18"/>
-    </row>
-    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="18"/>
-    </row>
-    <row r="71" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C72" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="21" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="63" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="63" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A75" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="21"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A74" s="39" t="s">
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+    </row>
+    <row r="76" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="41"/>
-    </row>
-    <row r="75" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="18"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="18"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+      <c r="C77" s="18"/>
+    </row>
+    <row r="78" spans="1:3" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C78" s="18"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>270</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A80" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="18"/>
-    </row>
-    <row r="77" spans="1:3" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C77" s="18"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>271</v>
-      </c>
-      <c r="B78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78" s="18"/>
-    </row>
-    <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A79" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="41"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="18"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C81" s="18"/>
@@ -7490,261 +7566,259 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C97" s="18"/>
     </row>
-    <row r="98" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="19"/>
-    </row>
-    <row r="99" spans="1:3" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="B99" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="18"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>277</v>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="19"/>
+    </row>
+    <row r="100" spans="1:3" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" t="s">
         <v>283</v>
-      </c>
-      <c r="B103" t="s">
-        <v>285</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B104" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A106" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="18"/>
-    </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A105" s="46" t="s">
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
+    </row>
+    <row r="107" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A107" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="B105" s="46"/>
-      <c r="C105" s="47"/>
-    </row>
-    <row r="106" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A106" s="23" t="s">
+      <c r="B107" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="1:3" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C107" s="18"/>
-    </row>
-    <row r="108" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A108" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C108" s="18"/>
-    </row>
-    <row r="109" spans="1:3" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A111" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="C109" s="18"/>
-    </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A110" s="46" t="s">
+      <c r="B111" s="46"/>
+      <c r="C111" s="47"/>
+    </row>
+    <row r="112" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A112" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B110" s="40"/>
-      <c r="C110" s="41"/>
-    </row>
-    <row r="111" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A111" s="26" t="s">
+      <c r="B112" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>294</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C111" s="18"/>
-    </row>
-    <row r="112" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>295</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="C112" s="18"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A113" s="39" t="s">
+      <c r="B114" s="46"/>
+      <c r="C114" s="47"/>
+    </row>
+    <row r="115" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A115" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="B113" s="40"/>
-      <c r="C113" s="41"/>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="26" t="s">
+      <c r="B115" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
         <v>299</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C116" s="56"/>
+    </row>
+    <row r="117" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="56"/>
+    </row>
+    <row r="118" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="56"/>
+    </row>
+    <row r="119" spans="1:3" ht="48" x14ac:dyDescent="0.4">
+      <c r="A119" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" s="56"/>
+    </row>
+    <row r="120" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>300</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C115" s="49"/>
-    </row>
-    <row r="116" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B116" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="56"/>
+    </row>
+    <row r="121" spans="1:3" ht="61.5" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C116" s="49"/>
-    </row>
-    <row r="117" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A117" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C117" s="49"/>
-    </row>
-    <row r="118" spans="1:3" ht="48" x14ac:dyDescent="0.4">
-      <c r="A118" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C118" s="49"/>
-    </row>
-    <row r="119" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A119" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C119" s="49"/>
-    </row>
-    <row r="120" spans="1:3" ht="61.5" x14ac:dyDescent="0.4">
-      <c r="A120" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C120" s="49"/>
-    </row>
-    <row r="121" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A121" s="39" t="s">
+      <c r="C121" s="56"/>
+    </row>
+    <row r="122" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A122" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="46"/>
+      <c r="C122" s="47"/>
+    </row>
+    <row r="123" spans="1:3" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A123" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="41"/>
-    </row>
-    <row r="122" spans="1:3" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A122" s="24" t="s">
+      <c r="B123" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="18"/>
+    </row>
+    <row r="124" spans="1:3" ht="72" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="18"/>
+    </row>
+    <row r="125" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C122" s="18"/>
-    </row>
-    <row r="123" spans="1:3" ht="72" x14ac:dyDescent="0.4">
-      <c r="A123" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C123" s="18"/>
-    </row>
-    <row r="124" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A124" s="2" t="s">
+      <c r="C125" s="18"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>319</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C124" s="18"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>320</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C125" s="18"/>
-    </row>
-    <row r="126" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A126" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="41"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C127" s="18"/>
+      <c r="C126" s="18"/>
+    </row>
+    <row r="127" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A127" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" s="46"/>
+      <c r="C127" s="47"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
       <c r="C128" s="18"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -7802,144 +7876,145 @@
       <c r="B139" s="2"/>
       <c r="C139" s="18"/>
     </row>
-    <row r="140" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="19"/>
-    </row>
-    <row r="141" spans="1:3" ht="57" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="18"/>
+    </row>
+    <row r="141" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="19"/>
+    </row>
+    <row r="142" spans="1:3" ht="57" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C142" s="18"/>
+    </row>
+    <row r="143" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="18"/>
-    </row>
-    <row r="142" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A142" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B142" s="2" t="s">
+      <c r="C143" s="18"/>
+    </row>
+    <row r="144" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A144" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="C142" s="18"/>
-    </row>
-    <row r="143" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A143" s="39" t="s">
+      <c r="B144" s="46"/>
+      <c r="C144" s="47"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
         <v>332</v>
       </c>
-      <c r="B143" s="40"/>
-      <c r="C143" s="41"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
+      <c r="B145" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" s="18"/>
+    </row>
+    <row r="146" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A146" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C144" s="18"/>
-    </row>
-    <row r="145" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A145" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="C146" s="18"/>
+    </row>
+    <row r="147" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A147" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="C145" s="18"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A146" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="B146" s="40"/>
-      <c r="C146" s="41"/>
-    </row>
-    <row r="147" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A147" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>338</v>
-      </c>
+      <c r="B147" s="46"/>
+      <c r="C147" s="47"/>
     </row>
     <row r="148" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149" s="18"/>
+    </row>
+    <row r="150" spans="1:3" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A150" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C148" s="18"/>
-    </row>
-    <row r="149" spans="1:3" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A149" s="2" t="s">
+      <c r="B150" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C150" s="18"/>
+    </row>
+    <row r="151" spans="1:3" ht="225" x14ac:dyDescent="0.4">
+      <c r="A151" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B149" s="44" t="s">
+      <c r="B151" s="59"/>
+      <c r="C151" s="18"/>
+    </row>
+    <row r="152" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A152" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C149" s="18"/>
-    </row>
-    <row r="150" spans="1:3" ht="225" x14ac:dyDescent="0.4">
-      <c r="A150" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B150" s="45"/>
-      <c r="C150" s="18"/>
-    </row>
-    <row r="151" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="A151" s="2" t="s">
+      <c r="B152" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C152" s="18"/>
+    </row>
+    <row r="153" spans="1:3" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B151" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="C151" s="18"/>
-    </row>
-    <row r="152" spans="1:3" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="A152" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B152" s="45"/>
-      <c r="C152" s="18"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="2"/>
+      <c r="B153" s="59"/>
       <c r="C153" s="18"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="58" t="s">
+      <c r="A154" s="2"/>
+      <c r="C154" s="18"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="B155" s="61"/>
+      <c r="C155" s="62"/>
+    </row>
+    <row r="156" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A156" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B154" s="59"/>
-      <c r="C154" s="60"/>
-    </row>
-    <row r="155" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A155" s="2" t="s">
+      <c r="B156" t="s">
         <v>418</v>
-      </c>
-      <c r="B155" t="s">
-        <v>419</v>
-      </c>
-      <c r="C155" s="18"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C156" s="18"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C157" s="18"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B158" t="s">
         <v>421</v>
       </c>
-      <c r="B157" t="s">
-        <v>422</v>
-      </c>
-      <c r="C157" s="18"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="2"/>
       <c r="C158" s="18"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
@@ -7950,56 +8025,57 @@
       <c r="A160" s="2"/>
       <c r="C160" s="18"/>
     </row>
-    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A161" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="B161" s="40"/>
-      <c r="C161" s="41"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>374</v>
-      </c>
-      <c r="C162" s="18"/>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="2"/>
+      <c r="C161" s="18"/>
+    </row>
+    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A162" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="B162" s="46"/>
+      <c r="C162" s="47"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C163" s="18"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C164" s="18"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C165" s="18"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C166" s="18"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C167" s="18"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="C168" s="18"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>415</v>
+      </c>
       <c r="C169" s="18"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
@@ -8251,27 +8327,30 @@
     <row r="252" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C252" s="18"/>
     </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C253" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A75:C75"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8288,10 +8367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D867866-A650-4358-8B7E-9EA2A8B3ED23}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8312,166 +8391,180 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>349</v>
-      </c>
+    <row r="2" spans="1:3" ht="162" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" t="s">
         <v>351</v>
       </c>
-      <c r="B4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="C6" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="375" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="375" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" t="s">
         <v>356</v>
       </c>
-      <c r="B5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="23" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="C9" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="B10" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" ht="156" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" ht="156" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B11" t="s">
         <v>364</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" s="23" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="370.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="370.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="C13" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="150" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="150" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B15" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -8485,8 +8578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5194C45-357C-4C10-A4B3-3DB785616111}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8509,99 +8602,99 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" t="s">
         <v>405</v>
-      </c>
-      <c r="B5" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.4">
-      <c r="A12" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
     </row>
     <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.4">
       <c r="A13" s="35"/>
@@ -8610,7 +8703,7 @@
     </row>
     <row r="14" spans="1:3" ht="270" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -8618,24 +8711,24 @@
     <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.4">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:3" ht="337.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>410</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -8675,170 +8768,170 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
         <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -8883,276 +8976,276 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
         <v>130</v>
       </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
         <v>97</v>
       </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
         <v>133</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/html.xlsx
+++ b/html.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD93E035-E8C1-4E8A-A1EE-D4F15883E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B5072-B215-4CE9-B4ED-7EDE1B01FED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2160" windowWidth="9600" windowHeight="11385" tabRatio="821" activeTab="3" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
+    <workbookView xWindow="6015" yWindow="3660" windowWidth="9600" windowHeight="11385" tabRatio="821" firstSheet="3" activeTab="7" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
   </bookViews>
   <sheets>
     <sheet name="命名規則" sheetId="12" r:id="rId1"/>
@@ -6956,7 +6956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F878F64-CD14-45FD-BE9A-88D5A254287E}">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
@@ -8952,8 +8952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277C7F3-67B4-4F73-926A-8D66D763AEA3}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
